--- a/main/static/main/example/sample_experiment_description.xlsx
+++ b/main/static/main/example/sample_experiment_description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="simple_template_file.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Line Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Media</t>
   </si>
   <si>
+    <t>Metabolomics Time(s)</t>
+  </si>
+  <si>
     <t>181-aceF</t>
   </si>
   <si>
@@ -42,17 +45,26 @@
     <t>LB</t>
   </si>
   <si>
+    <t>8h, 24h</t>
+  </si>
+  <si>
+    <t>4h, 6h</t>
+  </si>
+  <si>
+    <t>Targeted Proteomics Time(s)</t>
+  </si>
+  <si>
+    <t>Description blah blah</t>
+  </si>
+  <si>
     <t>Part ID</t>
-  </si>
-  <si>
-    <t>Describe your line here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,27 +88,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +115,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -457,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -468,41 +465,54 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/main/static/main/example/sample_experiment_description.xlsx
+++ b/main/static/main/example/sample_experiment_description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12220" yWindow="4480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="simple_template_file.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Line Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Metabolomics Time(s)</t>
-  </si>
-  <si>
     <t>181-aceF</t>
   </si>
   <si>
@@ -45,26 +42,17 @@
     <t>LB</t>
   </si>
   <si>
-    <t>8h, 24h</t>
-  </si>
-  <si>
-    <t>4h, 6h</t>
-  </si>
-  <si>
-    <t>Targeted Proteomics Time(s)</t>
-  </si>
-  <si>
-    <t>Description blah blah</t>
-  </si>
-  <si>
     <t>Part ID</t>
+  </si>
+  <si>
+    <t>Describe your line here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +76,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +117,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -465,54 +468,41 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
